--- a/StructureDefinition-profile-Slot.xlsx
+++ b/StructureDefinition-profile-Slot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="230">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7916747-06:00</t>
+    <t>2026-02-09T22:05:43.3265745-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -547,6 +547,12 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>Slot.serviceType.extension:serviceType</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType|0.0.1-snapshot-3}
 </t>
   </si>
@@ -555,6 +561,9 @@
   </si>
   <si>
     <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the Schedule resource.</t>
+  </si>
+  <si>
+    <t>Element `Slot.serviceType` is mapped to FHIR R4 element `Slot.serviceType`.</t>
   </si>
   <si>
     <t>Slot.serviceType.coding</t>
@@ -1033,9 +1042,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.28125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.40625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2634,7 +2643,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -2732,12 +2741,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>76</v>
       </c>
@@ -2758,15 +2769,17 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -2841,10 +2854,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2867,19 +2880,19 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -2928,7 +2941,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2943,7 +2956,7 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -2954,10 +2967,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2983,16 +2996,16 @@
         <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3041,7 +3054,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3056,7 +3069,7 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3067,10 +3080,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3096,10 +3109,10 @@
         <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3129,28 +3142,28 @@
         <v>110</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3176,10 +3189,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3205,10 +3218,10 @@
         <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3239,25 +3252,25 @@
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3283,10 +3296,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3309,13 +3322,13 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3366,7 +3379,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3392,10 +3405,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3421,10 +3434,10 @@
         <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3451,31 +3464,31 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -3493,7 +3506,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3501,10 +3514,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3527,13 +3540,13 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3584,7 +3597,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3602,18 +3615,18 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3636,13 +3649,13 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3693,7 +3706,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>86</v>
@@ -3711,18 +3724,18 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3745,13 +3758,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3759,7 +3772,7 @@
         <v>76</v>
       </c>
       <c r="Q25" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>76</v>
@@ -3804,7 +3817,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3830,10 +3843,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3859,10 +3872,10 @@
         <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3913,7 +3926,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-profile-Slot.xlsx
+++ b/StructureDefinition-profile-Slot.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3265745-06:00</t>
+    <t>2026-02-17T14:42:26.899532-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -563,7 +563,7 @@
     <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the Schedule resource.</t>
   </si>
   <si>
-    <t>Element `Slot.serviceType` is mapped to FHIR R4 element `Slot.serviceType`.</t>
+    <t>Element `Slot.serviceType` has is mapped to FHIR R4 element `Slot.serviceType`, but has no comparisons.</t>
   </si>
   <si>
     <t>Slot.serviceType.coding</t>

--- a/StructureDefinition-profile-Slot.xlsx
+++ b/StructureDefinition-profile-Slot.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.899532-06:00</t>
+    <t>2026-02-20T11:59:20.9465281-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Slot|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Slot</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -553,7 +553,7 @@
     <t>serviceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType}
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>The style of appointment or patient that may be booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
   </si>
   <si>
     <t>Slot.schedule</t>
@@ -1052,7 +1052,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.7109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Slot.xlsx
+++ b/StructureDefinition-profile-Slot.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9465281-06:00</t>
+    <t>2026-02-21T13:36:54.3505423-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Slot</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Slot|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -553,7 +553,7 @@
     <t>serviceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Slot.serviceType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -563,7 +563,7 @@
     <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the Schedule resource.</t>
   </si>
   <si>
-    <t>Element `Slot.serviceType` has is mapped to FHIR R4 element `Slot.serviceType`, but has no comparisons.</t>
+    <t>Element `Slot.serviceType` is mapped to FHIR R4 element `Slot.serviceType` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Slot.serviceType.coding</t>
@@ -636,7 +636,7 @@
     <t>The style of appointment or patient that may be booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276|2.0.0</t>
   </si>
   <si>
     <t>Slot.schedule</t>
@@ -1052,7 +1052,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.7109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
